--- a/biology/Zoologie/Laurent_Frapat/Laurent_Frapat.xlsx
+++ b/biology/Zoologie/Laurent_Frapat/Laurent_Frapat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent Frapat est un monteur et réalisateur de documentaires. 
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après trois ans d'études à l'Esra, Laurent Frapat devient cadreur puis monteur. En 1992, il réalise avec Guillaume Lévis Routine, un court-métrage sur les gestes de la vie quotidienne qui obtient une reconnaissance dans les festivals et auprès de chaînes de télévision. 
 En 1994, il entame une série sur les animaux du Kenya : Chroniques de l'Afrique sauvage. Laurent Frapat monte alors ses propres films et travaille sur la musique au ton lyrique de Carolin Petit. Produite et écrite par Frédéric Lepage, cette série dont les textes sont dits par Pierre Arditi en français et John Hurt en anglais, sera diffusée 
@@ -552,8 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Séries documentaires
-2009 : Belles &amp; Rebelles (3 × 52 min), Kenya pour One Planet, raconté par Julie Depardieu, puis par Virginie Bodin, HDcam
+          <t>Séries documentaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2009 : Belles &amp; Rebelles (3 × 52 min), Kenya pour One Planet, raconté par Julie Depardieu, puis par Virginie Bodin, HDcam
 2007 : Petits d'homme (3 × 52 min), France pour la Générale de Production, raconté par Jeanne Balibar, HDV. DVD Éditions montparnasse
 2006 : Le Grand Raid des gnous (3 × 52 min). Kenya, Tanzanie pour Télé Images Nature. Coréalisé avec Jean-Luc Guidoin, HDcam
 2004 : Genesis II : Et l'homme créa la nature (7 × 52 min), Kenya pour Télé Images Nature. Coréalisé avec Jean-Baptiste Erreca. Raconté par Lambert Wilson. DVD France Télévisions
@@ -562,9 +581,43 @@
 1999 : Les Chroniques de l'Australie sauvage (24 × 26 min)
 1998 : L'Odyssée bleue (12 × 26 min), Colombie, Bahamas, Îles Caïmans, République dominicaine pour Télé Images Nature. Raconté par Tchéky Karyo. VHS Warner Vision
 1997 : Les Chroniques de l'Amazonie sauvage (24 × 26 min), Brésil, Guyane pour XL Productions. Raconté par Pierre Arditi. DVD TF1 Vidéo
-1995 : Les Chroniques de l'Afrique sauvage (24 × 26 min), Kenya, Tanzanie pour XL Productions. Raconté par Pierre Arditi. DVD TF1 Vidéo
-Documentaires unitaires
-2013 : Islande (52 min). Electron Libre Productions.
+1995 : Les Chroniques de l'Afrique sauvage (24 × 26 min), Kenya, Tanzanie pour XL Productions. Raconté par Pierre Arditi. DVD TF1 Vidéo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Laurent_Frapat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Frapat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Documentaires unitaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2013 : Islande (52 min). Electron Libre Productions.
 2013 : Cambodge (52 min). Electron Libre Productions.
 2009 : Wild Opera (75 min). Kenya, Tanzanie pour Marathon, Animal Planet, HDcam.
 2003 : Chroniques du premier jour : Naissances sur la terre sauvage (100 min). Afrique, Brésil, Australie, Thaïlande, Canada pour Télé Images Nature. Raconté par Pierre Arditi.
@@ -574,9 +627,43 @@
 1997 : Le Crépuscule des lions (52 min). Kenya, Tanzanie pour Catalogue.
 1996 : Enfants du courage : Le Syndicat des enfants (52 min). Inde pour Catalogue.
 1994 : L'Enfant qui vivait trop vite (Too old, too soon) (52 min). Royaume-Uni, États-Unis pour XL Productions. Coréalisé avec Marie-Pierre Raimbault.
-1993 : Noël au Kenya (82 min). Kenya pour XL Productions.
-Courts métrages
-2007 : Routine 2 (10 min). Coréalisé avec Guillaume Lévis. Canal +.
+1993 : Noël au Kenya (82 min). Kenya pour XL Productions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laurent_Frapat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Frapat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Courts métrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2007 : Routine 2 (10 min). Coréalisé avec Guillaume Lévis. Canal +.
 Scènes de la vie quotidienne d'un couple avec un bébé.
 Grand Prix du Festival de Valenciennes 2009.
 1999 : Dimanche (7 min).
